--- a/data/CBS/NFIB/Expect Real Sales Higher.xlsx
+++ b/data/CBS/NFIB/Expect Real Sales Higher.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BEEEBFF7-5E4E-46A8-9A97-E518A619C66B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="18195" windowHeight="7995"/>
+    <workbookView xWindow="7050" yWindow="1575" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="489">
   <si>
     <t>Month/Year</t>
   </si>
@@ -42,135 +43,135 @@
     <t>1986/3/1</t>
   </si>
   <si>
+    <t>1986/4/1</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>1986/5/1</t>
+  </si>
+  <si>
+    <t>1986/6/1</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>1986/7/1</t>
+  </si>
+  <si>
+    <t>1986/8/1</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>1986/9/1</t>
+  </si>
+  <si>
+    <t>1986/10/1</t>
+  </si>
+  <si>
+    <t>1986/11/1</t>
+  </si>
+  <si>
+    <t>1986/12/1</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>1987/1/1</t>
+  </si>
+  <si>
+    <t>1987/2/1</t>
+  </si>
+  <si>
+    <t>1987/3/1</t>
+  </si>
+  <si>
+    <t>1987/4/1</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>1987/5/1</t>
+  </si>
+  <si>
+    <t>1987/6/1</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>1987/7/1</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>1987/8/1</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>1987/9/1</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>1987/10/1</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>1987/11/1</t>
+  </si>
+  <si>
+    <t>1987/12/1</t>
+  </si>
+  <si>
+    <t>1988/1/1</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
-    <t>1986/4/1</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>1986/5/1</t>
-  </si>
-  <si>
-    <t>1986/6/1</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>1986/7/1</t>
-  </si>
-  <si>
-    <t>1986/8/1</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>1986/9/1</t>
-  </si>
-  <si>
-    <t>1986/10/1</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>1986/11/1</t>
-  </si>
-  <si>
-    <t>1986/12/1</t>
-  </si>
-  <si>
-    <t>1987/1/1</t>
-  </si>
-  <si>
-    <t>1987/2/1</t>
-  </si>
-  <si>
-    <t>1987/3/1</t>
-  </si>
-  <si>
-    <t>1987/4/1</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>1987/5/1</t>
-  </si>
-  <si>
-    <t>1987/6/1</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>1987/7/1</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>1987/8/1</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>1987/9/1</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>1987/10/1</t>
+    <t>1988/2/1</t>
+  </si>
+  <si>
+    <t>1988/3/1</t>
+  </si>
+  <si>
+    <t>1988/4/1</t>
+  </si>
+  <si>
+    <t>1988/5/1</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>1988/6/1</t>
+  </si>
+  <si>
+    <t>1988/7/1</t>
+  </si>
+  <si>
+    <t>1988/8/1</t>
+  </si>
+  <si>
+    <t>1988/9/1</t>
   </si>
   <si>
     <t>30</t>
   </si>
   <si>
-    <t>1987/11/1</t>
-  </si>
-  <si>
-    <t>1987/12/1</t>
-  </si>
-  <si>
-    <t>1988/1/1</t>
-  </si>
-  <si>
-    <t>1988/2/1</t>
-  </si>
-  <si>
-    <t>1988/3/1</t>
-  </si>
-  <si>
-    <t>1988/4/1</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>1988/5/1</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>1988/6/1</t>
-  </si>
-  <si>
-    <t>1988/7/1</t>
-  </si>
-  <si>
-    <t>1988/8/1</t>
-  </si>
-  <si>
-    <t>1988/9/1</t>
-  </si>
-  <si>
     <t>1988/10/1</t>
   </si>
   <si>
@@ -258,411 +259,411 @@
     <t>1990/10/1</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>1990/11/1</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>1990/12/1</t>
+  </si>
+  <si>
+    <t>1991/1/1</t>
+  </si>
+  <si>
+    <t>-3</t>
+  </si>
+  <si>
+    <t>1991/2/1</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1991/3/1</t>
+  </si>
+  <si>
+    <t>1991/4/1</t>
+  </si>
+  <si>
+    <t>1991/5/1</t>
+  </si>
+  <si>
+    <t>1991/6/1</t>
+  </si>
+  <si>
+    <t>1991/7/1</t>
+  </si>
+  <si>
+    <t>1991/8/1</t>
+  </si>
+  <si>
+    <t>1991/9/1</t>
+  </si>
+  <si>
+    <t>1991/10/1</t>
+  </si>
+  <si>
+    <t>1991/11/1</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>1991/12/1</t>
+  </si>
+  <si>
+    <t>1992/1/1</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>1992/2/1</t>
+  </si>
+  <si>
+    <t>1992/3/1</t>
+  </si>
+  <si>
+    <t>1992/4/1</t>
+  </si>
+  <si>
+    <t>1992/5/1</t>
+  </si>
+  <si>
+    <t>1992/6/1</t>
+  </si>
+  <si>
+    <t>1992/7/1</t>
+  </si>
+  <si>
+    <t>1992/8/1</t>
+  </si>
+  <si>
+    <t>1992/9/1</t>
+  </si>
+  <si>
+    <t>1992/10/1</t>
+  </si>
+  <si>
+    <t>1992/11/1</t>
+  </si>
+  <si>
+    <t>1992/12/1</t>
+  </si>
+  <si>
+    <t>1993/1/1</t>
+  </si>
+  <si>
+    <t>1993/2/1</t>
+  </si>
+  <si>
+    <t>1993/3/1</t>
+  </si>
+  <si>
+    <t>1993/4/1</t>
+  </si>
+  <si>
+    <t>1993/5/1</t>
+  </si>
+  <si>
+    <t>1993/6/1</t>
+  </si>
+  <si>
+    <t>1993/7/1</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>1993/8/1</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>1993/9/1</t>
+  </si>
+  <si>
+    <t>1993/10/1</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>1993/11/1</t>
+  </si>
+  <si>
+    <t>1993/12/1</t>
+  </si>
+  <si>
+    <t>1994/1/1</t>
+  </si>
+  <si>
+    <t>1994/2/1</t>
+  </si>
+  <si>
+    <t>1994/3/1</t>
+  </si>
+  <si>
+    <t>1994/4/1</t>
+  </si>
+  <si>
+    <t>1994/5/1</t>
+  </si>
+  <si>
+    <t>1994/6/1</t>
+  </si>
+  <si>
+    <t>1994/7/1</t>
+  </si>
+  <si>
+    <t>1994/8/1</t>
+  </si>
+  <si>
+    <t>1994/9/1</t>
+  </si>
+  <si>
+    <t>1994/10/1</t>
+  </si>
+  <si>
+    <t>1994/11/1</t>
+  </si>
+  <si>
+    <t>1994/12/1</t>
+  </si>
+  <si>
+    <t>1995/1/1</t>
+  </si>
+  <si>
+    <t>1995/2/1</t>
+  </si>
+  <si>
+    <t>1995/3/1</t>
+  </si>
+  <si>
+    <t>1995/4/1</t>
+  </si>
+  <si>
+    <t>1995/5/1</t>
+  </si>
+  <si>
+    <t>1995/6/1</t>
+  </si>
+  <si>
+    <t>1995/7/1</t>
+  </si>
+  <si>
+    <t>1995/8/1</t>
+  </si>
+  <si>
+    <t>1995/9/1</t>
+  </si>
+  <si>
+    <t>1995/10/1</t>
+  </si>
+  <si>
+    <t>1995/11/1</t>
+  </si>
+  <si>
+    <t>1995/12/1</t>
+  </si>
+  <si>
+    <t>1996/1/1</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>1996/2/1</t>
+  </si>
+  <si>
+    <t>1996/3/1</t>
+  </si>
+  <si>
+    <t>1996/4/1</t>
+  </si>
+  <si>
+    <t>1996/5/1</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>1996/6/1</t>
+  </si>
+  <si>
+    <t>1996/7/1</t>
+  </si>
+  <si>
+    <t>1996/8/1</t>
+  </si>
+  <si>
+    <t>1996/9/1</t>
+  </si>
+  <si>
+    <t>1996/10/1</t>
+  </si>
+  <si>
+    <t>1996/11/1</t>
+  </si>
+  <si>
+    <t>1996/12/1</t>
+  </si>
+  <si>
+    <t>1997/1/1</t>
+  </si>
+  <si>
+    <t>1997/2/1</t>
+  </si>
+  <si>
+    <t>1997/3/1</t>
+  </si>
+  <si>
+    <t>1997/4/1</t>
+  </si>
+  <si>
+    <t>1997/5/1</t>
+  </si>
+  <si>
+    <t>1997/6/1</t>
+  </si>
+  <si>
+    <t>1997/7/1</t>
+  </si>
+  <si>
+    <t>1997/8/1</t>
+  </si>
+  <si>
+    <t>1997/9/1</t>
+  </si>
+  <si>
+    <t>1997/10/1</t>
+  </si>
+  <si>
+    <t>1997/11/1</t>
+  </si>
+  <si>
+    <t>1997/12/1</t>
+  </si>
+  <si>
+    <t>1998/1/1</t>
+  </si>
+  <si>
+    <t>1998/2/1</t>
+  </si>
+  <si>
+    <t>1998/3/1</t>
+  </si>
+  <si>
+    <t>1998/4/1</t>
+  </si>
+  <si>
+    <t>1998/5/1</t>
+  </si>
+  <si>
+    <t>1998/6/1</t>
+  </si>
+  <si>
+    <t>1998/7/1</t>
+  </si>
+  <si>
+    <t>1998/8/1</t>
+  </si>
+  <si>
+    <t>1998/9/1</t>
+  </si>
+  <si>
+    <t>1998/10/1</t>
+  </si>
+  <si>
+    <t>1998/11/1</t>
+  </si>
+  <si>
+    <t>1998/12/1</t>
+  </si>
+  <si>
+    <t>1999/1/1</t>
+  </si>
+  <si>
+    <t>1999/2/1</t>
+  </si>
+  <si>
+    <t>1999/3/1</t>
+  </si>
+  <si>
+    <t>1999/4/1</t>
+  </si>
+  <si>
+    <t>1999/5/1</t>
+  </si>
+  <si>
+    <t>1999/6/1</t>
+  </si>
+  <si>
+    <t>1999/7/1</t>
+  </si>
+  <si>
+    <t>1999/8/1</t>
+  </si>
+  <si>
+    <t>1999/9/1</t>
+  </si>
+  <si>
+    <t>1999/10/1</t>
+  </si>
+  <si>
+    <t>1999/11/1</t>
+  </si>
+  <si>
+    <t>1999/12/1</t>
+  </si>
+  <si>
+    <t>2000/1/1</t>
+  </si>
+  <si>
+    <t>2000/2/1</t>
+  </si>
+  <si>
+    <t>2000/3/1</t>
+  </si>
+  <si>
+    <t>2000/4/1</t>
+  </si>
+  <si>
+    <t>2000/5/1</t>
+  </si>
+  <si>
+    <t>2000/6/1</t>
+  </si>
+  <si>
+    <t>2000/7/1</t>
+  </si>
+  <si>
+    <t>2000/8/1</t>
+  </si>
+  <si>
+    <t>2000/9/1</t>
+  </si>
+  <si>
+    <t>2000/10/1</t>
+  </si>
+  <si>
+    <t>2000/11/1</t>
+  </si>
+  <si>
+    <t>2000/12/1</t>
+  </si>
+  <si>
+    <t>2001/1/1</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
-    <t>1990/11/1</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>1990/12/1</t>
-  </si>
-  <si>
-    <t>1991/1/1</t>
-  </si>
-  <si>
-    <t>-3</t>
-  </si>
-  <si>
-    <t>1991/2/1</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1991/3/1</t>
-  </si>
-  <si>
-    <t>1991/4/1</t>
-  </si>
-  <si>
-    <t>1991/5/1</t>
-  </si>
-  <si>
-    <t>1991/6/1</t>
-  </si>
-  <si>
-    <t>1991/7/1</t>
-  </si>
-  <si>
-    <t>1991/8/1</t>
-  </si>
-  <si>
-    <t>1991/9/1</t>
-  </si>
-  <si>
-    <t>1991/10/1</t>
-  </si>
-  <si>
-    <t>1991/11/1</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>1991/12/1</t>
-  </si>
-  <si>
-    <t>1992/1/1</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>1992/2/1</t>
-  </si>
-  <si>
-    <t>1992/3/1</t>
-  </si>
-  <si>
-    <t>1992/4/1</t>
-  </si>
-  <si>
-    <t>1992/5/1</t>
-  </si>
-  <si>
-    <t>1992/6/1</t>
-  </si>
-  <si>
-    <t>1992/7/1</t>
-  </si>
-  <si>
-    <t>1992/8/1</t>
-  </si>
-  <si>
-    <t>1992/9/1</t>
-  </si>
-  <si>
-    <t>1992/10/1</t>
-  </si>
-  <si>
-    <t>1992/11/1</t>
-  </si>
-  <si>
-    <t>1992/12/1</t>
-  </si>
-  <si>
-    <t>1993/1/1</t>
-  </si>
-  <si>
-    <t>1993/2/1</t>
-  </si>
-  <si>
-    <t>1993/3/1</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>1993/4/1</t>
-  </si>
-  <si>
-    <t>1993/5/1</t>
-  </si>
-  <si>
-    <t>1993/6/1</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1993/7/1</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>1993/8/1</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>1993/9/1</t>
-  </si>
-  <si>
-    <t>1993/10/1</t>
-  </si>
-  <si>
-    <t>1993/11/1</t>
-  </si>
-  <si>
-    <t>1993/12/1</t>
-  </si>
-  <si>
-    <t>1994/1/1</t>
-  </si>
-  <si>
-    <t>1994/2/1</t>
-  </si>
-  <si>
-    <t>1994/3/1</t>
-  </si>
-  <si>
-    <t>1994/4/1</t>
-  </si>
-  <si>
-    <t>1994/5/1</t>
-  </si>
-  <si>
-    <t>1994/6/1</t>
-  </si>
-  <si>
-    <t>1994/7/1</t>
-  </si>
-  <si>
-    <t>1994/8/1</t>
-  </si>
-  <si>
-    <t>1994/9/1</t>
-  </si>
-  <si>
-    <t>1994/10/1</t>
-  </si>
-  <si>
-    <t>1994/11/1</t>
-  </si>
-  <si>
-    <t>1994/12/1</t>
-  </si>
-  <si>
-    <t>1995/1/1</t>
-  </si>
-  <si>
-    <t>1995/2/1</t>
-  </si>
-  <si>
-    <t>1995/3/1</t>
-  </si>
-  <si>
-    <t>1995/4/1</t>
-  </si>
-  <si>
-    <t>1995/5/1</t>
-  </si>
-  <si>
-    <t>1995/6/1</t>
-  </si>
-  <si>
-    <t>1995/7/1</t>
-  </si>
-  <si>
-    <t>1995/8/1</t>
-  </si>
-  <si>
-    <t>1995/9/1</t>
-  </si>
-  <si>
-    <t>1995/10/1</t>
-  </si>
-  <si>
-    <t>1995/11/1</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>1995/12/1</t>
-  </si>
-  <si>
-    <t>1996/1/1</t>
-  </si>
-  <si>
-    <t>1996/2/1</t>
-  </si>
-  <si>
-    <t>1996/3/1</t>
-  </si>
-  <si>
-    <t>1996/4/1</t>
-  </si>
-  <si>
-    <t>1996/5/1</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>1996/6/1</t>
-  </si>
-  <si>
-    <t>1996/7/1</t>
-  </si>
-  <si>
-    <t>1996/8/1</t>
-  </si>
-  <si>
-    <t>1996/9/1</t>
-  </si>
-  <si>
-    <t>1996/10/1</t>
-  </si>
-  <si>
-    <t>1996/11/1</t>
-  </si>
-  <si>
-    <t>1996/12/1</t>
-  </si>
-  <si>
-    <t>1997/1/1</t>
-  </si>
-  <si>
-    <t>1997/2/1</t>
-  </si>
-  <si>
-    <t>1997/3/1</t>
-  </si>
-  <si>
-    <t>1997/4/1</t>
-  </si>
-  <si>
-    <t>1997/5/1</t>
-  </si>
-  <si>
-    <t>1997/6/1</t>
-  </si>
-  <si>
-    <t>1997/7/1</t>
-  </si>
-  <si>
-    <t>1997/8/1</t>
-  </si>
-  <si>
-    <t>1997/9/1</t>
-  </si>
-  <si>
-    <t>1997/10/1</t>
-  </si>
-  <si>
-    <t>1997/11/1</t>
-  </si>
-  <si>
-    <t>1997/12/1</t>
-  </si>
-  <si>
-    <t>1998/1/1</t>
-  </si>
-  <si>
-    <t>1998/2/1</t>
-  </si>
-  <si>
-    <t>1998/3/1</t>
-  </si>
-  <si>
-    <t>1998/4/1</t>
-  </si>
-  <si>
-    <t>1998/5/1</t>
-  </si>
-  <si>
-    <t>1998/6/1</t>
-  </si>
-  <si>
-    <t>1998/7/1</t>
-  </si>
-  <si>
-    <t>1998/8/1</t>
-  </si>
-  <si>
-    <t>1998/9/1</t>
-  </si>
-  <si>
-    <t>1998/10/1</t>
-  </si>
-  <si>
-    <t>1998/11/1</t>
-  </si>
-  <si>
-    <t>1998/12/1</t>
-  </si>
-  <si>
-    <t>1999/1/1</t>
-  </si>
-  <si>
-    <t>1999/2/1</t>
-  </si>
-  <si>
-    <t>1999/3/1</t>
-  </si>
-  <si>
-    <t>1999/4/1</t>
-  </si>
-  <si>
-    <t>1999/5/1</t>
-  </si>
-  <si>
-    <t>1999/6/1</t>
-  </si>
-  <si>
-    <t>1999/7/1</t>
-  </si>
-  <si>
-    <t>1999/8/1</t>
-  </si>
-  <si>
-    <t>1999/9/1</t>
-  </si>
-  <si>
-    <t>1999/10/1</t>
-  </si>
-  <si>
-    <t>1999/11/1</t>
-  </si>
-  <si>
-    <t>1999/12/1</t>
-  </si>
-  <si>
-    <t>2000/1/1</t>
-  </si>
-  <si>
-    <t>2000/2/1</t>
-  </si>
-  <si>
-    <t>2000/3/1</t>
-  </si>
-  <si>
-    <t>2000/4/1</t>
-  </si>
-  <si>
-    <t>2000/5/1</t>
-  </si>
-  <si>
-    <t>2000/6/1</t>
-  </si>
-  <si>
-    <t>2000/7/1</t>
-  </si>
-  <si>
-    <t>2000/8/1</t>
-  </si>
-  <si>
-    <t>2000/9/1</t>
-  </si>
-  <si>
-    <t>2000/10/1</t>
-  </si>
-  <si>
-    <t>2000/11/1</t>
-  </si>
-  <si>
-    <t>2000/12/1</t>
-  </si>
-  <si>
-    <t>2001/1/1</t>
-  </si>
-  <si>
     <t>2001/2/1</t>
   </si>
   <si>
@@ -693,6 +694,9 @@
     <t>2001/10/1</t>
   </si>
   <si>
+    <t>-2</t>
+  </si>
+  <si>
     <t>2001/11/1</t>
   </si>
   <si>
@@ -843,7 +847,7 @@
     <t>2005/10/1</t>
   </si>
   <si>
-    <t>39</t>
+    <t>40</t>
   </si>
   <si>
     <t>2005/11/1</t>
@@ -978,12 +982,15 @@
     <t>2008/10/1</t>
   </si>
   <si>
+    <t>-14</t>
+  </si>
+  <si>
+    <t>2008/11/1</t>
+  </si>
+  <si>
     <t>-15</t>
   </si>
   <si>
-    <t>2008/11/1</t>
-  </si>
-  <si>
     <t>2008/12/1</t>
   </si>
   <si>
@@ -1005,9 +1012,6 @@
     <t>2009/3/1</t>
   </si>
   <si>
-    <t>-29</t>
-  </si>
-  <si>
     <t>2009/4/1</t>
   </si>
   <si>
@@ -1071,9 +1075,6 @@
     <t>2010/9/1</t>
   </si>
   <si>
-    <t>-2</t>
-  </si>
-  <si>
     <t>2010/10/1</t>
   </si>
   <si>
@@ -1422,6 +1423,9 @@
     <t>2020/3/1</t>
   </si>
   <si>
+    <t>-12</t>
+  </si>
+  <si>
     <t>2020/4/1</t>
   </si>
   <si>
@@ -1480,12 +1484,15 @@
   </si>
   <si>
     <t>2021/10/1</t>
+  </si>
+  <si>
+    <t>2021/12/1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1634,6 +1641,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1669,6 +1693,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1844,8 +1885,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B430"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B431"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1886,20 +1927,20 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
         <v>5</v>
@@ -1907,63 +1948,63 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
         <v>11</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
         <v>3</v>
@@ -1971,31 +2012,31 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
         <v>5</v>
@@ -2003,66 +2044,66 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" t="s">
         <v>27</v>
-      </c>
-      <c r="B19" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
-      </c>
-      <c r="B20" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" t="s">
         <v>31</v>
-      </c>
-      <c r="B21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B22" t="s">
         <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
         <v>39</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2070,7 +2111,7 @@
         <v>40</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2078,7 +2119,7 @@
         <v>41</v>
       </c>
       <c r="B28" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2086,28 +2127,28 @@
         <v>42</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
         <v>44</v>
-      </c>
-      <c r="B30" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
         <v>5</v>
@@ -2115,18 +2156,18 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" t="s">
         <v>49</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -2134,7 +2175,7 @@
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -2142,7 +2183,7 @@
         <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -2150,7 +2191,7 @@
         <v>52</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +2199,7 @@
         <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -2166,7 +2207,7 @@
         <v>54</v>
       </c>
       <c r="B39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -2174,7 +2215,7 @@
         <v>55</v>
       </c>
       <c r="B40" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2255,7 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -2222,7 +2263,7 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -2230,7 +2271,7 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -2246,7 +2287,7 @@
         <v>66</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2262,7 +2303,7 @@
         <v>68</v>
       </c>
       <c r="B51" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2270,7 +2311,7 @@
         <v>69</v>
       </c>
       <c r="B52" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2278,7 +2319,7 @@
         <v>70</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -2286,7 +2327,7 @@
         <v>71</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -2366,7 +2407,7 @@
         <v>87</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -2374,7 +2415,7 @@
         <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -2382,7 +2423,7 @@
         <v>89</v>
       </c>
       <c r="B66" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -2390,7 +2431,7 @@
         <v>90</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +2439,7 @@
         <v>91</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -2414,7 +2455,7 @@
         <v>93</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -2422,7 +2463,7 @@
         <v>94</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -2438,7 +2479,7 @@
         <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -2462,7 +2503,7 @@
         <v>101</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +2519,7 @@
         <v>103</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +2527,7 @@
         <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -2494,7 +2535,7 @@
         <v>105</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,7 +2543,7 @@
         <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -2518,7 +2559,7 @@
         <v>108</v>
       </c>
       <c r="B83" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,7 +2567,7 @@
         <v>109</v>
       </c>
       <c r="B84" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +2583,7 @@
         <v>111</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -2558,20 +2599,20 @@
         <v>113</v>
       </c>
       <c r="B88" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B89" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B90" t="s">
         <v>96</v>
@@ -2579,55 +2620,55 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B91" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B93" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B94" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B95" t="s">
-        <v>96</v>
+        <v>123</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B96" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B97" t="s">
         <v>99</v>
@@ -2635,7 +2676,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B98" t="s">
         <v>58</v>
@@ -2643,7 +2684,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
         <v>58</v>
@@ -2651,15 +2692,15 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B101" t="s">
         <v>75</v>
@@ -2667,15 +2708,15 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B102" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B103" t="s">
         <v>65</v>
@@ -2683,7 +2724,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B104" t="s">
         <v>99</v>
@@ -2691,7 +2732,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B105" t="s">
         <v>58</v>
@@ -2699,23 +2740,23 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B106" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B108" t="s">
         <v>5</v>
@@ -2723,7 +2764,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B109" t="s">
         <v>3</v>
@@ -2731,31 +2772,31 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B113" t="s">
         <v>75</v>
@@ -2763,7 +2804,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B114" t="s">
         <v>99</v>
@@ -2771,7 +2812,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B115" t="s">
         <v>99</v>
@@ -2779,7 +2820,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B116" t="s">
         <v>58</v>
@@ -2787,39 +2828,39 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B119" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B120" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B121" t="s">
         <v>99</v>
@@ -2827,31 +2868,31 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B122" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B123" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B124" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B125" t="s">
         <v>3</v>
@@ -2859,23 +2900,23 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
         <v>156</v>
-      </c>
-      <c r="B126" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B127" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B128" t="s">
         <v>3</v>
@@ -2883,7 +2924,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B129" t="s">
         <v>65</v>
@@ -2891,23 +2932,23 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B131" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B132" t="s">
         <v>75</v>
@@ -2915,7 +2956,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B133" t="s">
         <v>75</v>
@@ -2923,87 +2964,87 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B134" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B136" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B139" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B140" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B142" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B144" t="s">
         <v>5</v>
@@ -3011,7 +3052,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B145" t="s">
         <v>65</v>
@@ -3019,7 +3060,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B146" t="s">
         <v>75</v>
@@ -3027,47 +3068,47 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B147" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B148" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B150" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B151" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B152" t="s">
         <v>58</v>
@@ -3075,15 +3116,15 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B154" t="s">
         <v>65</v>
@@ -3091,15 +3132,15 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B155" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B156" t="s">
         <v>58</v>
@@ -3107,7 +3148,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B157" t="s">
         <v>99</v>
@@ -3115,7 +3156,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B158" t="s">
         <v>75</v>
@@ -3123,31 +3164,31 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B159" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B161" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B162" t="s">
         <v>96</v>
@@ -3155,7 +3196,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B163" t="s">
         <v>65</v>
@@ -3163,15 +3204,15 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B165" t="s">
         <v>99</v>
@@ -3179,23 +3220,23 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B167" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B168" t="s">
         <v>58</v>
@@ -3203,7 +3244,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B169" t="s">
         <v>58</v>
@@ -3211,31 +3252,31 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B170" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B171" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B172" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B173" t="s">
         <v>58</v>
@@ -3243,15 +3284,15 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B174" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B175" t="s">
         <v>99</v>
@@ -3259,7 +3300,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B176" t="s">
         <v>58</v>
@@ -3267,7 +3308,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B177" t="s">
         <v>3</v>
@@ -3275,23 +3316,23 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B179" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B180" t="s">
         <v>96</v>
@@ -3299,18 +3340,18 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B181" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
+        <v>212</v>
+      </c>
+      <c r="B182" t="s">
         <v>213</v>
-      </c>
-      <c r="B182" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -3318,7 +3359,7 @@
         <v>214</v>
       </c>
       <c r="B183" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -3326,7 +3367,7 @@
         <v>215</v>
       </c>
       <c r="B184" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3350,7 +3391,7 @@
         <v>218</v>
       </c>
       <c r="B187" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3366,7 +3407,7 @@
         <v>220</v>
       </c>
       <c r="B189" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3382,28 +3423,28 @@
         <v>223</v>
       </c>
       <c r="B191" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B192" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B193" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B194" t="s">
         <v>99</v>
@@ -3411,7 +3452,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B195" t="s">
         <v>65</v>
@@ -3419,39 +3460,39 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B196" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B198" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B200" t="s">
         <v>58</v>
@@ -3459,7 +3500,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B201" t="s">
         <v>75</v>
@@ -3467,7 +3508,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B202" t="s">
         <v>65</v>
@@ -3475,23 +3516,23 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B203" t="s">
-        <v>157</v>
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B204" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B205" t="s">
         <v>77</v>
@@ -3499,39 +3540,39 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B206" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B207" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B208" t="s">
-        <v>81</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B209" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B210" t="s">
         <v>99</v>
@@ -3539,15 +3580,15 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B212" t="s">
         <v>58</v>
@@ -3555,15 +3596,15 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B213" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B214" t="s">
         <v>65</v>
@@ -3571,71 +3612,71 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B215" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B216" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B217" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B219" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B220" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B221" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B222" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B223" t="s">
         <v>5</v>
@@ -3643,23 +3684,23 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B224" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B225" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B226" t="s">
         <v>3</v>
@@ -3667,71 +3708,71 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B227" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B228" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B229" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B230" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B231" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B232" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B235" t="s">
         <v>75</v>
@@ -3739,15 +3780,15 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B237" t="s">
         <v>5</v>
@@ -3755,7 +3796,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B238" t="s">
         <v>99</v>
@@ -3763,15 +3804,15 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B239" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B240" t="s">
         <v>65</v>
@@ -3779,15 +3820,15 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B241" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B242" t="s">
         <v>58</v>
@@ -3795,7 +3836,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B243" t="s">
         <v>5</v>
@@ -3803,15 +3844,15 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B244" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B245" t="s">
         <v>58</v>
@@ -3819,7 +3860,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B246" t="s">
         <v>75</v>
@@ -3827,31 +3868,31 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B247" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B248" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B249" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B250" t="s">
         <v>99</v>
@@ -3859,15 +3900,15 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B251" t="s">
-        <v>99</v>
+        <v>151</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B252" t="s">
         <v>75</v>
@@ -3875,63 +3916,63 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B253" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B254" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B255" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B256" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B257" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B258" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B259" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B260" t="s">
         <v>96</v>
@@ -3939,15 +3980,15 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B261" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B262" t="s">
         <v>96</v>
@@ -3955,55 +3996,55 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B263" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B264" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B265" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B266" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B267" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B268" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B269" t="s">
         <v>84</v>
@@ -4011,87 +4052,87 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B270" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B271" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B272" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B273" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B274" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B275" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B276" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B277" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B278" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B279" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B280" t="s">
         <v>328</v>
@@ -4099,63 +4140,63 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B281" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B282" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B283" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B284" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B285" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B286" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B287" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B288" t="s">
         <v>84</v>
@@ -4163,7 +4204,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B289" t="s">
         <v>84</v>
@@ -4171,31 +4212,31 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B290" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B291" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B292" t="s">
-        <v>306</v>
+        <v>224</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B293" t="s">
         <v>81</v>
@@ -4203,23 +4244,23 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B294" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B295" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B296" t="s">
         <v>84</v>
@@ -4227,18 +4268,18 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B297" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B298" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -4246,7 +4287,7 @@
         <v>351</v>
       </c>
       <c r="B299" t="s">
-        <v>222</v>
+        <v>86</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -4254,7 +4295,7 @@
         <v>352</v>
       </c>
       <c r="B300" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -4286,7 +4327,7 @@
         <v>357</v>
       </c>
       <c r="B304" t="s">
-        <v>79</v>
+        <v>301</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -4294,7 +4335,7 @@
         <v>358</v>
       </c>
       <c r="B305" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -4310,7 +4351,7 @@
         <v>360</v>
       </c>
       <c r="B307" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -4318,7 +4359,7 @@
         <v>361</v>
       </c>
       <c r="B308" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -4326,7 +4367,7 @@
         <v>362</v>
       </c>
       <c r="B309" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -4334,7 +4375,7 @@
         <v>363</v>
       </c>
       <c r="B310" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -4342,7 +4383,7 @@
         <v>364</v>
       </c>
       <c r="B311" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -4358,7 +4399,7 @@
         <v>366</v>
       </c>
       <c r="B313" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -4366,7 +4407,7 @@
         <v>367</v>
       </c>
       <c r="B314" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -4374,7 +4415,7 @@
         <v>368</v>
       </c>
       <c r="B315" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -4382,7 +4423,7 @@
         <v>369</v>
       </c>
       <c r="B316" t="s">
-        <v>355</v>
+        <v>79</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -4406,7 +4447,7 @@
         <v>372</v>
       </c>
       <c r="B319" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -4438,7 +4479,7 @@
         <v>376</v>
       </c>
       <c r="B323" t="s">
-        <v>302</v>
+        <v>226</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -4454,7 +4495,7 @@
         <v>379</v>
       </c>
       <c r="B325" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -4462,7 +4503,7 @@
         <v>380</v>
       </c>
       <c r="B326" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -4470,7 +4511,7 @@
         <v>381</v>
       </c>
       <c r="B327" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -4478,7 +4519,7 @@
         <v>382</v>
       </c>
       <c r="B328" t="s">
-        <v>350</v>
+        <v>84</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -4486,7 +4527,7 @@
         <v>383</v>
       </c>
       <c r="B329" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -4494,7 +4535,7 @@
         <v>384</v>
       </c>
       <c r="B330" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -4510,7 +4551,7 @@
         <v>386</v>
       </c>
       <c r="B332" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -4526,7 +4567,7 @@
         <v>388</v>
       </c>
       <c r="B334" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -4534,7 +4575,7 @@
         <v>389</v>
       </c>
       <c r="B335" t="s">
-        <v>86</v>
+        <v>303</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -4558,7 +4599,7 @@
         <v>392</v>
       </c>
       <c r="B338" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -4574,7 +4615,7 @@
         <v>394</v>
       </c>
       <c r="B340" t="s">
-        <v>15</v>
+        <v>77</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -4598,7 +4639,7 @@
         <v>397</v>
       </c>
       <c r="B343" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -4606,7 +4647,7 @@
         <v>398</v>
       </c>
       <c r="B344" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -4614,7 +4655,7 @@
         <v>399</v>
       </c>
       <c r="B345" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -4630,7 +4671,7 @@
         <v>401</v>
       </c>
       <c r="B347" t="s">
-        <v>355</v>
+        <v>120</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -4662,7 +4703,7 @@
         <v>405</v>
       </c>
       <c r="B351" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -4670,7 +4711,7 @@
         <v>406</v>
       </c>
       <c r="B352" t="s">
-        <v>96</v>
+        <v>14</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -4686,7 +4727,7 @@
         <v>408</v>
       </c>
       <c r="B354" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -4694,7 +4735,7 @@
         <v>409</v>
       </c>
       <c r="B355" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -4702,7 +4743,7 @@
         <v>410</v>
       </c>
       <c r="B356" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -4710,7 +4751,7 @@
         <v>411</v>
       </c>
       <c r="B357" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -4726,7 +4767,7 @@
         <v>413</v>
       </c>
       <c r="B359" t="s">
-        <v>225</v>
+        <v>81</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -4734,7 +4775,7 @@
         <v>414</v>
       </c>
       <c r="B360" t="s">
-        <v>350</v>
+        <v>224</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -4758,7 +4799,7 @@
         <v>417</v>
       </c>
       <c r="B363" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.25">
@@ -4766,7 +4807,7 @@
         <v>418</v>
       </c>
       <c r="B364" t="s">
-        <v>222</v>
+        <v>305</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.25">
@@ -4782,7 +4823,7 @@
         <v>420</v>
       </c>
       <c r="B366" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.25">
@@ -4798,7 +4839,7 @@
         <v>422</v>
       </c>
       <c r="B368" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.25">
@@ -4806,7 +4847,7 @@
         <v>423</v>
       </c>
       <c r="B369" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.25">
@@ -4814,7 +4855,7 @@
         <v>424</v>
       </c>
       <c r="B370" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.25">
@@ -4822,7 +4863,7 @@
         <v>425</v>
       </c>
       <c r="B371" t="s">
-        <v>341</v>
+        <v>305</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.25">
@@ -4838,7 +4879,7 @@
         <v>427</v>
       </c>
       <c r="B373" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.25">
@@ -4846,7 +4887,7 @@
         <v>428</v>
       </c>
       <c r="B374" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.25">
@@ -4854,7 +4895,7 @@
         <v>429</v>
       </c>
       <c r="B375" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.25">
@@ -4862,7 +4903,7 @@
         <v>430</v>
       </c>
       <c r="B376" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.25">
@@ -4886,7 +4927,7 @@
         <v>433</v>
       </c>
       <c r="B379" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +4959,7 @@
         <v>437</v>
       </c>
       <c r="B383" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.25">
@@ -4926,7 +4967,7 @@
         <v>438</v>
       </c>
       <c r="B384" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.25">
@@ -4950,7 +4991,7 @@
         <v>441</v>
       </c>
       <c r="B387" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.25">
@@ -4958,7 +4999,7 @@
         <v>442</v>
       </c>
       <c r="B388" t="s">
-        <v>58</v>
+        <v>75</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.25">
@@ -4974,7 +5015,7 @@
         <v>444</v>
       </c>
       <c r="B390" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.25">
@@ -4982,7 +5023,7 @@
         <v>445</v>
       </c>
       <c r="B391" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.25">
@@ -4990,7 +5031,7 @@
         <v>446</v>
       </c>
       <c r="B392" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.25">
@@ -4998,7 +5039,7 @@
         <v>447</v>
       </c>
       <c r="B393" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.25">
@@ -5006,7 +5047,7 @@
         <v>448</v>
       </c>
       <c r="B394" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.25">
@@ -5014,7 +5055,7 @@
         <v>449</v>
       </c>
       <c r="B395" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.25">
@@ -5022,7 +5063,7 @@
         <v>450</v>
       </c>
       <c r="B396" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.25">
@@ -5046,7 +5087,7 @@
         <v>453</v>
       </c>
       <c r="B399" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.25">
@@ -5054,7 +5095,7 @@
         <v>454</v>
       </c>
       <c r="B400" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.25">
@@ -5070,7 +5111,7 @@
         <v>456</v>
       </c>
       <c r="B402" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.25">
@@ -5078,7 +5119,7 @@
         <v>457</v>
       </c>
       <c r="B403" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.25">
@@ -5094,7 +5135,7 @@
         <v>459</v>
       </c>
       <c r="B405" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.25">
@@ -5102,7 +5143,7 @@
         <v>460</v>
       </c>
       <c r="B406" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.25">
@@ -5110,7 +5151,7 @@
         <v>461</v>
       </c>
       <c r="B407" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.25">
@@ -5118,7 +5159,7 @@
         <v>462</v>
       </c>
       <c r="B408" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.25">
@@ -5142,7 +5183,7 @@
         <v>465</v>
       </c>
       <c r="B411" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.25">
@@ -5150,28 +5191,28 @@
         <v>466</v>
       </c>
       <c r="B412" t="s">
-        <v>310</v>
+        <v>467</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B413" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B414" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B415" t="s">
         <v>77</v>
@@ -5179,15 +5220,15 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B416" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B417" t="s">
         <v>86</v>
@@ -5195,63 +5236,63 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B418" t="s">
-        <v>79</v>
+        <v>213</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B419" t="s">
-        <v>355</v>
+        <v>120</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B420" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B421" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B422" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B423" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B424" t="s">
-        <v>304</v>
+        <v>342</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B425" t="s">
         <v>222</v>
@@ -5259,7 +5300,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B426" t="s">
         <v>86</v>
@@ -5267,15 +5308,15 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B427" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B428" t="s">
         <v>84</v>
@@ -5283,23 +5324,32 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B429" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B430" t="s">
-        <v>306</v>
+        <v>342</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" t="s">
+        <v>488</v>
+      </c>
+      <c r="B431" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1"/>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>